--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1061150.218486696</v>
+        <v>1057138.415754599</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140339</v>
+        <v>6432656.960140343</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4964269.407804223</v>
+        <v>4964269.407804222</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>130.5835986359964</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>7.837347402761079</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T12" t="n">
         <v>136.1757056744559</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.24561479210456</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>66.61043266197031</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>78.43443956892735</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.98252128459755</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>8.37636283059577</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>92.53332786621172</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>121.4428236301044</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>151.024657212702</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2016,10 +2016,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>39.60180459911242</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>195.659804762316</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>120.5281258488902</v>
+        <v>109.359416017677</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
-        <v>83.79022171289647</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
         <v>277.3339849899809</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>75.24259670618289</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>339.6219457083677</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3085625684984</v>
@@ -2374,19 +2374,19 @@
         <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>257.4445825537666</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -2566,13 +2566,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>385.3830079805652</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>147.1907555569646</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2730,7 +2730,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H28" t="n">
-        <v>134.4334047779238</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I28" t="n">
         <v>71.96559361603954</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2797,7 +2797,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>109.8399294698371</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,10 +2806,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>138.4349026083656</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U31" t="n">
-        <v>277.333984989981</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3037,13 +3037,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>28.61972767469122</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>138.4349026083656</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.48994447064907</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3339849899801</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>382.3337080543785</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
-        <v>171.8891227694177</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3331,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>87.79532367983063</v>
       </c>
       <c r="I37" t="n">
         <v>71.96559361603954</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>112.751781981271</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>81.52539156816896</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3514,13 +3514,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>208.2115729394384</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>38.88891054723967</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.43407936503139</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>105.0053242549815</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>12.82307656752509</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>7.318788127206138</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>95.21213852750677</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>77.95336348818586</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.27910702707106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.75775879579366</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>93.3209597454008</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>892.9487690975901</v>
+        <v>1003.890654549757</v>
       </c>
       <c r="C11" t="n">
-        <v>466.0480391108902</v>
+        <v>576.989924563057</v>
       </c>
       <c r="D11" t="n">
-        <v>42.75541829589048</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E11" t="n">
-        <v>42.75541829589048</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F11" t="n">
-        <v>42.75541829589048</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103611</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.770914794524</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="V11" t="n">
-        <v>2129.854402266482</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="W11" t="n">
-        <v>2129.854402266482</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="X11" t="n">
-        <v>1718.13440343423</v>
+        <v>1409.227924594867</v>
       </c>
       <c r="Y11" t="n">
-        <v>1312.79713338912</v>
+        <v>1003.890654549757</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,28 +5111,28 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J12" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426551</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109033</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283642</v>
+        <v>758.5074531333029</v>
       </c>
       <c r="M12" t="n">
-        <v>739.8954600838656</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
-        <v>1254.962719722999</v>
+        <v>1254.962719723</v>
       </c>
       <c r="O12" t="n">
         <v>1482.454583745858</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.598571124369</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="C13" t="n">
-        <v>752.6260080032849</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D13" t="n">
-        <v>589.3092351300556</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E13" t="n">
-        <v>423.1010292829092</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F13" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G13" t="n">
         <v>251.2392550574696</v>
@@ -5196,55 +5196,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K13" t="n">
-        <v>166.4811349991142</v>
+        <v>306.3087174642592</v>
       </c>
       <c r="L13" t="n">
-        <v>275.9756251911622</v>
+        <v>415.8032076563071</v>
       </c>
       <c r="M13" t="n">
-        <v>805.0739266028069</v>
+        <v>944.9015090679516</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.602104586207</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658705</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S13" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.278665192341</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818623</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.431859426652</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W13" t="n">
-        <v>1175.431859426652</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="X13" t="n">
-        <v>1175.431859426652</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="Y13" t="n">
-        <v>949.0890911163938</v>
+        <v>1108.148594111529</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>543.3758667518808</v>
+        <v>1172.092665913797</v>
       </c>
       <c r="C14" t="n">
-        <v>116.4751367651809</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="D14" t="n">
-        <v>116.4751367651809</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="E14" t="n">
-        <v>116.4751367651809</v>
+        <v>745.1919359270976</v>
       </c>
       <c r="F14" t="n">
-        <v>116.4751367651809</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G14" t="n">
-        <v>116.4751367651809</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.958031365648</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V14" t="n">
-        <v>1780.281499920773</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W14" t="n">
-        <v>1780.281499920773</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X14" t="n">
-        <v>1368.561501088521</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y14" t="n">
-        <v>963.2242310434109</v>
+        <v>1251.319372549078</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,37 +5348,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283642</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.413486887099</v>
+        <v>423.2118181785536</v>
       </c>
       <c r="C16" t="n">
-        <v>538.440923766015</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="D16" t="n">
-        <v>375.1241508927857</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9159450456392</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F16" t="n">
-        <v>208.9159450456392</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G16" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H16" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J16" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K16" t="n">
-        <v>373.718927285624</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L16" t="n">
-        <v>859.6023110688369</v>
+        <v>481.8999867656337</v>
       </c>
       <c r="M16" t="n">
-        <v>1388.700612480482</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N16" t="n">
-        <v>1901.228790463882</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O16" t="n">
         <v>2003.682813232012</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S16" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.278665192341</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818623</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426652</v>
+        <v>1175.431859426651</v>
       </c>
       <c r="W16" t="n">
-        <v>900.5794555991647</v>
+        <v>900.5794555991638</v>
       </c>
       <c r="X16" t="n">
-        <v>900.5794555991647</v>
+        <v>658.0155590449689</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.5794555991647</v>
+        <v>431.6727907347109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1573.500757161562</v>
+        <v>1271.046094169249</v>
       </c>
       <c r="C17" t="n">
-        <v>1573.500757161562</v>
+        <v>1271.046094169249</v>
       </c>
       <c r="D17" t="n">
-        <v>1573.500757161562</v>
+        <v>1271.046094169249</v>
       </c>
       <c r="E17" t="n">
-        <v>1147.523817309419</v>
+        <v>845.0691543171068</v>
       </c>
       <c r="F17" t="n">
         <v>722.3996354988195</v>
@@ -5509,58 +5509,58 @@
         <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M17" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794524</v>
+        <v>1925.631778790232</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794524</v>
+        <v>1667.437443868902</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794524</v>
+        <v>1667.437443868902</v>
       </c>
       <c r="W17" t="n">
-        <v>1985.220755993815</v>
+        <v>1271.046094169249</v>
       </c>
       <c r="X17" t="n">
-        <v>1573.500757161562</v>
+        <v>1271.046094169249</v>
       </c>
       <c r="Y17" t="n">
-        <v>1573.500757161562</v>
+        <v>1271.046094169249</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C18" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D18" t="n">
         <v>377.0871448858306</v>
@@ -5585,34 +5585,34 @@
         <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J18" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K18" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L18" t="n">
-        <v>519.5225649727761</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M18" t="n">
-        <v>763.3527659282774</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N18" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O18" t="n">
-        <v>1243.469695585332</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P18" t="n">
-        <v>1422.910349236154</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
         <v>1668.279192602594</v>
@@ -5636,10 +5636,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4987886378846</v>
+        <v>756.1165571901761</v>
       </c>
       <c r="C19" t="n">
-        <v>709.4987886378846</v>
+        <v>584.1439940690921</v>
       </c>
       <c r="D19" t="n">
-        <v>546.1820157646553</v>
+        <v>420.8272211958628</v>
       </c>
       <c r="E19" t="n">
-        <v>379.9738099175088</v>
+        <v>254.6190153487163</v>
       </c>
       <c r="F19" t="n">
-        <v>208.1120356920692</v>
+        <v>82.75724112327674</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589048</v>
+        <v>82.75724112327674</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K19" t="n">
-        <v>491.6854607613571</v>
+        <v>491.685460761357</v>
       </c>
       <c r="L19" t="n">
-        <v>977.5688445445701</v>
+        <v>977.5688445445699</v>
       </c>
       <c r="M19" t="n">
-        <v>1096.275006445851</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N19" t="n">
-        <v>1210.770261587371</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O19" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.326552563498</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T19" t="n">
-        <v>1743.834164657643</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U19" t="n">
-        <v>1463.698826283925</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V19" t="n">
-        <v>1181.987358891953</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="W19" t="n">
-        <v>907.1349550644663</v>
+        <v>1188.846422456437</v>
       </c>
       <c r="X19" t="n">
-        <v>709.4987886378846</v>
+        <v>946.2825259022417</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4987886378846</v>
+        <v>946.2825259022417</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>566.8328813437578</v>
+        <v>430.5318107000099</v>
       </c>
       <c r="C20" t="n">
-        <v>566.8328813437578</v>
+        <v>430.5318107000099</v>
       </c>
       <c r="D20" t="n">
-        <v>445.0872996782122</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="E20" t="n">
-        <v>445.0872996782122</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F20" t="n">
-        <v>445.0872996782122</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072051</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.069171561001</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848328</v>
+        <v>709.5851800848319</v>
       </c>
       <c r="M20" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794524</v>
+        <v>1925.631778790232</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794524</v>
+        <v>1667.437443868902</v>
       </c>
       <c r="V20" t="n">
-        <v>1780.281499920773</v>
+        <v>1667.437443868902</v>
       </c>
       <c r="W20" t="n">
-        <v>1383.89015022112</v>
+        <v>1667.437443868902</v>
       </c>
       <c r="X20" t="n">
-        <v>972.1701513888675</v>
+        <v>1255.71744503665</v>
       </c>
       <c r="Y20" t="n">
-        <v>566.8328813437578</v>
+        <v>850.38017499154</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.5540468050093</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>803.0481433225141</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
-        <v>699.2081848377991</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E21" t="n">
-        <v>594.5062511107363</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F21" t="n">
-        <v>500.8604207936405</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>407.8805855396978</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>364.876458247859</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>408.5627360938325</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J21" t="n">
-        <v>726.5869490946228</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K21" t="n">
-        <v>874.377903462871</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L21" t="n">
-        <v>1080.628493085271</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M21" t="n">
-        <v>1324.458694040772</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.083759674967</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1804.575623697827</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1984.016277348648</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
-        <v>2137.770914794524</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S21" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T21" t="n">
-        <v>1938.84334949402</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U21" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V21" t="n">
-        <v>1549.1726682719</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W21" t="n">
-        <v>1352.651291105117</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>1189.17394487178</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.5285910517829</v>
+        <v>588.5684355747322</v>
       </c>
       <c r="C22" t="n">
-        <v>414.5560279306989</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="D22" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="E22" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F22" t="n">
-        <v>251.2392550574696</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2392550574696</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H22" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484809</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K22" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>582.2660249670176</v>
+        <v>977.56884454457</v>
       </c>
       <c r="M22" t="n">
-        <v>698.2420836039711</v>
+        <v>1409.031211019158</v>
       </c>
       <c r="N22" t="n">
-        <v>1210.770261587371</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O22" t="n">
-        <v>1690.926608658705</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T22" t="n">
-        <v>1892.134465509412</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U22" t="n">
-        <v>1611.999127135694</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V22" t="n">
-        <v>1330.287659743723</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W22" t="n">
-        <v>1055.435255916236</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X22" t="n">
-        <v>812.8713593620408</v>
+        <v>664.5710585102705</v>
       </c>
       <c r="Y22" t="n">
-        <v>586.5285910517829</v>
+        <v>588.5684355747322</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1658.332712715219</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="C23" t="n">
-        <v>1231.431982728519</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="D23" t="n">
-        <v>1231.431982728519</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E23" t="n">
-        <v>805.4550428763763</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F23" t="n">
         <v>462.4025724638836</v>
@@ -5989,25 +5989,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>631.2805511005022</v>
+        <v>239.551332392876</v>
       </c>
       <c r="K23" t="n">
-        <v>846.1136630542981</v>
+        <v>454.3844443466718</v>
       </c>
       <c r="L23" t="n">
-        <v>1118.62967157813</v>
+        <v>726.9004528705036</v>
       </c>
       <c r="M23" t="n">
-        <v>1427.002522858947</v>
+        <v>1035.273304151321</v>
       </c>
       <c r="N23" t="n">
-        <v>1741.114913128938</v>
+        <v>1349.385694421312</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.555356129462</v>
+        <v>1848.186938279251</v>
       </c>
       <c r="P23" t="n">
-        <v>2585.727538982948</v>
+        <v>2093.878631620213</v>
       </c>
       <c r="Q23" t="n">
         <v>2762.403697278422</v>
@@ -6022,19 +6022,19 @@
         <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V23" t="n">
-        <v>2474.572426706402</v>
+        <v>2375.277346753981</v>
       </c>
       <c r="W23" t="n">
-        <v>2078.181077006749</v>
+        <v>1978.885997054328</v>
       </c>
       <c r="X23" t="n">
-        <v>2078.181077006749</v>
+        <v>1718.840964171735</v>
       </c>
       <c r="Y23" t="n">
-        <v>2078.181077006749</v>
+        <v>1313.503694126626</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>421.7811819283256</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965738</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6126,19 +6126,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851353</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
-        <v>771.981125311906</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647595</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393199</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431412</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2127.84862875466</v>
+        <v>1762.230848421632</v>
       </c>
       <c r="C26" t="n">
-        <v>1700.94789876796</v>
+        <v>1335.330118434932</v>
       </c>
       <c r="D26" t="n">
-        <v>1277.655277952961</v>
+        <v>912.0374976199325</v>
       </c>
       <c r="E26" t="n">
-        <v>851.6783381008182</v>
+        <v>486.0605577677901</v>
       </c>
       <c r="F26" t="n">
-        <v>462.4025724638836</v>
+        <v>486.0605577677901</v>
       </c>
       <c r="G26" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6226,25 +6226,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>631.2805511005022</v>
+        <v>239.551332392876</v>
       </c>
       <c r="K26" t="n">
-        <v>846.1136630542981</v>
+        <v>454.3844443466718</v>
       </c>
       <c r="L26" t="n">
-        <v>1118.62967157813</v>
+        <v>726.9004528705036</v>
       </c>
       <c r="M26" t="n">
-        <v>1427.002522858947</v>
+        <v>1035.273304151321</v>
       </c>
       <c r="N26" t="n">
-        <v>1741.114913128938</v>
+        <v>1349.385694421312</v>
       </c>
       <c r="O26" t="n">
-        <v>2035.555356129462</v>
+        <v>2092.760496555641</v>
       </c>
       <c r="P26" t="n">
-        <v>2281.247049470424</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q26" t="n">
         <v>2762.403697278422</v>
@@ -6262,16 +6262,16 @@
         <v>2944.905897632023</v>
       </c>
       <c r="V26" t="n">
-        <v>2944.905897632023</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="W26" t="n">
-        <v>2944.905897632023</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="X26" t="n">
-        <v>2533.18589879977</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="Y26" t="n">
-        <v>2127.84862875466</v>
+        <v>2182.079212713162</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965738</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6393,10 +6393,10 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1925.160403493045</v>
       </c>
       <c r="O28" t="n">
         <v>2405.316750564379</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2128.666183640839</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C29" t="n">
-        <v>1701.765453654139</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.816029947233</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E29" t="n">
-        <v>1164.839090095091</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F29" t="n">
-        <v>739.714908284491</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1470.275255004833</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
@@ -6493,22 +6493,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2944.905897632023</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="V29" t="n">
-        <v>2944.905897632023</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="W29" t="n">
-        <v>2548.514547932369</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="X29" t="n">
-        <v>2548.514547932369</v>
+        <v>2181.213527837534</v>
       </c>
       <c r="Y29" t="n">
-        <v>2548.514547932369</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="30">
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6621,10 +6621,10 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>431.0790168988077</v>
+        <v>397.2373026266571</v>
       </c>
       <c r="L31" t="n">
         <v>883.12068640987</v>
@@ -6648,25 +6648,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T31" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y31" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1766.628920909204</v>
+        <v>1761.365163546004</v>
       </c>
       <c r="C32" t="n">
-        <v>1339.728190922505</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D32" t="n">
-        <v>916.4355701075049</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E32" t="n">
-        <v>887.5267542744834</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F32" t="n">
-        <v>462.4025724638836</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G32" t="n">
         <v>60.07069108156194</v>
@@ -6718,7 +6718,7 @@
         <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
         <v>2762.403697278422</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>3003.534554078097</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="V32" t="n">
-        <v>3003.534554078097</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="W32" t="n">
-        <v>3003.534554078097</v>
+        <v>2592.933526669786</v>
       </c>
       <c r="X32" t="n">
-        <v>2591.814555245844</v>
+        <v>2181.213527837534</v>
       </c>
       <c r="Y32" t="n">
-        <v>2186.477285200735</v>
+        <v>2181.213527837534</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1786.317686088583</v>
+        <v>615.7482796387122</v>
       </c>
       <c r="C33" t="n">
-        <v>1668.811782606087</v>
+        <v>498.242376156217</v>
       </c>
       <c r="D33" t="n">
-        <v>1564.971824121372</v>
+        <v>394.4024176715021</v>
       </c>
       <c r="E33" t="n">
-        <v>1460.26989039431</v>
+        <v>289.7004839444393</v>
       </c>
       <c r="F33" t="n">
-        <v>1366.624060077214</v>
+        <v>196.0546536273434</v>
       </c>
       <c r="G33" t="n">
-        <v>1273.644224823271</v>
+        <v>103.0748183734007</v>
       </c>
       <c r="H33" t="n">
-        <v>1230.640097531432</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>1274.326375377406</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>1592.350588378196</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K33" t="n">
-        <v>1740.141542746444</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L33" t="n">
-        <v>1946.392132368844</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M33" t="n">
-        <v>2190.222333324346</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>2442.847398958541</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>2670.3392629814</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>2849.779916632222</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2961.619372123041</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
-        <v>3003.534554078097</v>
+        <v>1832.965147628227</v>
       </c>
       <c r="S33" t="n">
-        <v>2942.158206630578</v>
+        <v>1771.588800180708</v>
       </c>
       <c r="T33" t="n">
-        <v>2804.606988777593</v>
+        <v>1634.037582327722</v>
       </c>
       <c r="U33" t="n">
-        <v>2619.909446416206</v>
+        <v>1449.340039966336</v>
       </c>
       <c r="V33" t="n">
-        <v>2414.936307555472</v>
+        <v>1244.366901105602</v>
       </c>
       <c r="W33" t="n">
-        <v>2218.41493038869</v>
+        <v>1047.84552393882</v>
       </c>
       <c r="X33" t="n">
-        <v>2054.937584155353</v>
+        <v>884.3681777054826</v>
       </c>
       <c r="Y33" t="n">
-        <v>1915.244695508645</v>
+        <v>744.675289058775</v>
       </c>
     </row>
     <row r="34">
@@ -6840,10 +6840,10 @@
         <v>935.2978981851352</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119059</v>
+        <v>771.981125311906</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647595</v>
       </c>
       <c r="F34" t="n">
         <v>433.9111452393198</v>
@@ -6867,7 +6867,7 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N34" t="n">
         <v>1925.160403493045</v>
@@ -6885,10 +6885,10 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.534692381769</v>
+        <v>2842.53469238177</v>
       </c>
       <c r="T34" t="n">
-        <v>2603.042304475913</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U34" t="n">
         <v>2322.906966102196</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>320.0677541164978</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="C35" t="n">
-        <v>320.0677541164978</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="D35" t="n">
-        <v>320.0677541164978</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
         <v>42.75541829589048</v>
@@ -6937,13 +6937,13 @@
         <v>84.39494262103608</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
@@ -6952,7 +6952,7 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
         <v>1872.202557977127</v>
@@ -6967,22 +6967,22 @@
         <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U35" t="n">
-        <v>1905.516881813684</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V35" t="n">
-        <v>1548.027466939934</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W35" t="n">
-        <v>1151.636117240281</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="X35" t="n">
-        <v>739.9161184080278</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="Y35" t="n">
-        <v>739.9161184080278</v>
+        <v>854.9280228494254</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.955188520548</v>
+        <v>1042.846015694191</v>
       </c>
       <c r="C37" t="n">
-        <v>917.9826253994637</v>
+        <v>870.873452573107</v>
       </c>
       <c r="D37" t="n">
-        <v>754.6658525262344</v>
+        <v>707.5566796998777</v>
       </c>
       <c r="E37" t="n">
-        <v>588.4576466790879</v>
+        <v>541.3484738527312</v>
       </c>
       <c r="F37" t="n">
-        <v>416.5958724536483</v>
+        <v>369.4866996272916</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2392550574696</v>
+        <v>204.1300822311129</v>
       </c>
       <c r="H37" t="n">
         <v>115.4479370999708</v>
@@ -7095,52 +7095,52 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484809</v>
+        <v>139.2640696814211</v>
       </c>
       <c r="K37" t="n">
-        <v>166.4811349991142</v>
+        <v>221.0319991956872</v>
       </c>
       <c r="L37" t="n">
-        <v>275.9756251911622</v>
+        <v>330.5264893877352</v>
       </c>
       <c r="M37" t="n">
-        <v>698.2420836039711</v>
+        <v>859.6247907993799</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.770261587371</v>
+        <v>1372.15296878278</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658705</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T37" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.880225924553</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="V37" t="n">
-        <v>2023.880225924553</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="W37" t="n">
-        <v>1749.027822097066</v>
+        <v>1701.918649270709</v>
       </c>
       <c r="X37" t="n">
-        <v>1506.463925542871</v>
+        <v>1459.354752716515</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.121157232613</v>
+        <v>1233.011984406257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1318.925708949733</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="C38" t="n">
-        <v>892.0249789630327</v>
+        <v>1996.793377976562</v>
       </c>
       <c r="D38" t="n">
-        <v>468.7323581480329</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E38" t="n">
-        <v>42.75541829589048</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F38" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G38" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H38" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O38" t="n">
         <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
@@ -7201,25 +7201,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>1925.631778790233</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.317058649386</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.317058649386</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="W38" t="n">
-        <v>1318.925708949733</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="X38" t="n">
-        <v>1318.925708949733</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="Y38" t="n">
-        <v>1318.925708949733</v>
+        <v>2079.14225834845</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K39" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>519.5225649727761</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>763.3527659282774</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.9511842536717</v>
+        <v>679.0819007482369</v>
       </c>
       <c r="C40" t="n">
-        <v>395.9511842536717</v>
+        <v>679.0819007482369</v>
       </c>
       <c r="D40" t="n">
-        <v>232.6344113804424</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="E40" t="n">
-        <v>66.42620553329593</v>
+        <v>515.7651278750076</v>
       </c>
       <c r="F40" t="n">
-        <v>42.75541829589048</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589048</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H40" t="n">
         <v>42.75541829589048</v>
@@ -7332,22 +7332,22 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>330.5264893877348</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M40" t="n">
-        <v>859.6247907993795</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N40" t="n">
-        <v>1372.15296878278</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O40" t="n">
-        <v>1852.309315854113</v>
+        <v>1723.616423865865</v>
       </c>
       <c r="P40" t="n">
         <v>1936.87886150226</v>
@@ -7356,28 +7356,28 @@
         <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
-        <v>1891.723027423367</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U40" t="n">
-        <v>1611.587689049648</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="V40" t="n">
-        <v>1329.876221657677</v>
+        <v>1462.122697265671</v>
       </c>
       <c r="W40" t="n">
-        <v>1055.02381783019</v>
+        <v>1187.270293438184</v>
       </c>
       <c r="X40" t="n">
-        <v>812.4599212759953</v>
+        <v>944.7063968839894</v>
       </c>
       <c r="Y40" t="n">
-        <v>586.1171529657373</v>
+        <v>718.3636285737315</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1719.481042155954</v>
+        <v>426.1337382124387</v>
       </c>
       <c r="C41" t="n">
-        <v>1719.481042155954</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="D41" t="n">
-        <v>1296.188421340954</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="E41" t="n">
-        <v>870.211481488812</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F41" t="n">
-        <v>445.0872996782122</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072049</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848326</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
@@ -7435,28 +7435,28 @@
         <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2124.818312201064</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U41" t="n">
-        <v>2124.818312201064</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V41" t="n">
-        <v>2124.818312201064</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W41" t="n">
-        <v>2124.818312201064</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="X41" t="n">
-        <v>2124.818312201064</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="Y41" t="n">
-        <v>1719.481042155954</v>
+        <v>845.9821025039688</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
         <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K42" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>519.5225649727761</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>763.3527659282774</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>676.0865226273895</v>
+        <v>529.773788879919</v>
       </c>
       <c r="C43" t="n">
-        <v>676.0865226273895</v>
+        <v>357.801225758835</v>
       </c>
       <c r="D43" t="n">
-        <v>512.7697497541602</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="E43" t="n">
-        <v>512.7697497541602</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="F43" t="n">
-        <v>416.5958724536483</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2392550574696</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H43" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484807</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
         <v>166.4811349991142</v>
@@ -7578,43 +7578,43 @@
         <v>652.3645187823271</v>
       </c>
       <c r="M43" t="n">
-        <v>1096.275006445851</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N43" t="n">
-        <v>1210.770261587371</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O43" t="n">
-        <v>1690.926608658704</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1891.723027423366</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U43" t="n">
-        <v>1891.723027423366</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V43" t="n">
-        <v>1610.011560031395</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="W43" t="n">
-        <v>1335.159156203908</v>
+        <v>1188.846422456437</v>
       </c>
       <c r="X43" t="n">
-        <v>1092.595259649713</v>
+        <v>946.2825259022426</v>
       </c>
       <c r="Y43" t="n">
-        <v>866.2524913394552</v>
+        <v>719.9397575919846</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.757269945333</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="C44" t="n">
-        <v>893.8565399586328</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="D44" t="n">
-        <v>893.8565399586328</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E44" t="n">
-        <v>467.8796001064903</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J44" t="n">
         <v>222.2360596072047</v>
@@ -7663,37 +7663,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>2137.770914794523</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="V44" t="n">
-        <v>1780.281499920773</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="W44" t="n">
-        <v>1780.281499920773</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="X44" t="n">
-        <v>1780.281499920773</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1740.605634236863</v>
+        <v>2000.401487148262</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>586.5285910517829</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C46" t="n">
-        <v>414.5560279306989</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="D46" t="n">
-        <v>251.2392550574696</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="E46" t="n">
-        <v>251.2392550574696</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2392550574696</v>
+        <v>58.67234637244974</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K46" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L46" t="n">
-        <v>793.5055319595106</v>
+        <v>481.8999867656339</v>
       </c>
       <c r="M46" t="n">
-        <v>1322.603833371155</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N46" t="n">
-        <v>1437.099088512675</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.326552563498</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T46" t="n">
-        <v>1743.834164657642</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U46" t="n">
-        <v>1463.698826283924</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V46" t="n">
-        <v>1181.987358891953</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W46" t="n">
-        <v>907.1349550644659</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X46" t="n">
-        <v>812.8713593620408</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y46" t="n">
-        <v>586.5285910517829</v>
+        <v>592.672652431039</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>265.0931252575141</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>141.2399822880254</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6065467720883</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>130.6222986245343</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219103</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>134.8781695713338</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9330,16 +9330,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>2.757680064977407</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>282.8953427940881</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>241.3988769298246</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>59.60382895134691</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>318.6730382198327</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>206.425051371127</v>
       </c>
       <c r="P23" t="n">
-        <v>307.556050012651</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>453.4690496301063</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>249.7730798851973</v>
       </c>
       <c r="Q26" t="n">
-        <v>307.5560500126511</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K27" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,13 +10041,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>268.6251448311431</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>439.3959099530423</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>263.8462195622612</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>136.8880587814653</v>
       </c>
       <c r="L31" t="n">
-        <v>346.0072518373883</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>307.556050012651</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>241.3988769298247</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,10 +10515,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N34" t="n">
-        <v>289.1611029510189</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>55.10188302684145</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>309.3842421978338</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>55.10188302684105</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.2951947219103</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>129.99282019015</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>331.2468980066366</v>
+        <v>245.1087987454525</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>194.2682636425307</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>288.4760959708533</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.077173322252</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.0186942328404</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>157.4689079651851</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>337.2154410796874</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>201.5566911778037</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8879461943492</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>71.16972335600522</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>299.4301163623893</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>241.4027789899545</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>94.8316001788113</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.47845282633696</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>298.5315687579595</v>
+        <v>309.7002785891727</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,10 +23983,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,7 +24141,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>153.3072423139006</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>148.8367439209725</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>81.25099428412602</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>150.1582162901636</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.48993201192854</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>251.1178070115338</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>309.2197651370126</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>117.1774889637504</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>393.0974427789298</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>117.1774889637504</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>36.72598655247117</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>83.72326880269836</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>46.6380810980931</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
-        <v>164.5822030087099</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25393,7 +25393,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>341.1063311186639</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
-        <v>47.40081863267758</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>149.3753984777053</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>146.7090771181538</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>71.96559361603954</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>317.6263984318514</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>197.1946680767232</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.3648170172908</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>74.93101795567841</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>177.6590280839302</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>362.0047903175875</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>147.9452924264233</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>146.8172978432521</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>344399.8905450542</v>
+        <v>344399.890545054</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>344399.8905450542</v>
+        <v>344399.890545054</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>344399.8905450542</v>
+        <v>344399.8905450541</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>344399.8905450542</v>
+        <v>344399.8905450541</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>467023.3407885534</v>
+        <v>467023.3407885533</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>467023.3407885535</v>
+        <v>467023.3407885534</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>344399.890545054</v>
+        <v>344399.8905450541</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>344399.8905450541</v>
+        <v>344399.8905450542</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>459005.7691301063</v>
+        <v>459005.7691301062</v>
       </c>
       <c r="C2" t="n">
-        <v>459005.7691301063</v>
+        <v>459005.7691301062</v>
       </c>
       <c r="D2" t="n">
         <v>459005.7691301063</v>
       </c>
       <c r="E2" t="n">
-        <v>272948.3045884969</v>
+        <v>272948.3045884966</v>
       </c>
       <c r="F2" t="n">
         <v>272948.3045884967</v>
       </c>
       <c r="G2" t="n">
-        <v>272948.3045884969</v>
+        <v>272948.3045884966</v>
       </c>
       <c r="H2" t="n">
-        <v>272948.3045884968</v>
+        <v>272948.3045884965</v>
       </c>
       <c r="I2" t="n">
-        <v>342564.5111976892</v>
+        <v>342564.5111976895</v>
       </c>
       <c r="J2" t="n">
         <v>342564.5111976893</v>
       </c>
       <c r="K2" t="n">
-        <v>342564.5111976894</v>
+        <v>342564.5111976893</v>
       </c>
       <c r="L2" t="n">
-        <v>342564.5111976894</v>
+        <v>342564.5111976893</v>
       </c>
       <c r="M2" t="n">
-        <v>272948.3045884966</v>
+        <v>272948.3045884967</v>
       </c>
       <c r="N2" t="n">
-        <v>272948.3045884967</v>
+        <v>272948.3045884969</v>
       </c>
       <c r="O2" t="n">
         <v>272948.3045884966</v>
       </c>
       <c r="P2" t="n">
-        <v>272948.3045884966</v>
+        <v>272948.3045884969</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222536</v>
+        <v>556689.6559222534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160775</v>
+        <v>79247.3252716077</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>322739.0782821833</v>
       </c>
       <c r="E4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166095</v>
       </c>
       <c r="F4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166095</v>
       </c>
       <c r="G4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166095</v>
       </c>
       <c r="H4" t="n">
-        <v>20716.52783166095</v>
+        <v>20716.52783166093</v>
       </c>
       <c r="I4" t="n">
         <v>60803.91340972757</v>
       </c>
       <c r="J4" t="n">
-        <v>60803.91340972757</v>
+        <v>60803.91340972755</v>
       </c>
       <c r="K4" t="n">
         <v>60803.91340972757</v>
       </c>
       <c r="L4" t="n">
-        <v>60803.91340972757</v>
+        <v>60803.91340972756</v>
       </c>
       <c r="M4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166095</v>
       </c>
       <c r="N4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166098</v>
       </c>
       <c r="O4" t="n">
         <v>20716.52783166094</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="H5" t="n">
         <v>43269.71441650124</v>
@@ -26505,7 +26505,7 @@
         <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
         <v>43269.71441650124</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102639.090847923</v>
+        <v>102617.3772064265</v>
       </c>
       <c r="C6" t="n">
-        <v>102639.0908479231</v>
+        <v>102617.3772064265</v>
       </c>
       <c r="D6" t="n">
-        <v>102639.090847923</v>
+        <v>102617.3772064266</v>
       </c>
       <c r="E6" t="n">
-        <v>-347727.5935819189</v>
+        <v>-348330.7368001078</v>
       </c>
       <c r="F6" t="n">
-        <v>208962.0623403346</v>
+        <v>208358.9191221457</v>
       </c>
       <c r="G6" t="n">
-        <v>208962.0623403347</v>
+        <v>208358.9191221456</v>
       </c>
       <c r="H6" t="n">
-        <v>208962.0623403346</v>
+        <v>208358.9191221454</v>
       </c>
       <c r="I6" t="n">
-        <v>167775.0928738684</v>
+        <v>167389.5003013334</v>
       </c>
       <c r="J6" t="n">
-        <v>225331.2760543501</v>
+        <v>224945.6834818151</v>
       </c>
       <c r="K6" t="n">
-        <v>225331.2760543503</v>
+        <v>224945.6834818151</v>
       </c>
       <c r="L6" t="n">
-        <v>225331.2760543503</v>
+        <v>224945.6834818151</v>
       </c>
       <c r="M6" t="n">
-        <v>129714.7370687267</v>
+        <v>129111.5938505379</v>
       </c>
       <c r="N6" t="n">
-        <v>208962.0623403345</v>
+        <v>208358.9191221458</v>
       </c>
       <c r="O6" t="n">
-        <v>208962.0623403345</v>
+        <v>208358.9191221456</v>
       </c>
       <c r="P6" t="n">
-        <v>208962.0623403345</v>
+        <v>208358.9191221458</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="H3" t="n">
         <v>494.2934179644261</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26828,10 +26828,10 @@
         <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777377</v>
+        <v>318.0018188777375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H11" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K11" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L11" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N11" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O11" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R11" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H12" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K12" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R12" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S12" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K13" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L13" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M13" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N13" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O13" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P13" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S13" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T13" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H14" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O14" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R14" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K16" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L16" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M16" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N16" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S16" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O17" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R17" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K19" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L19" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M19" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N19" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33906,13 +33906,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O38" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q38" t="n">
         <v>214.5854405596218</v>
@@ -33924,10 +33924,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33994,10 +33994,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S39" t="n">
         <v>19.74842099131456</v>
@@ -34006,7 +34006,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I40" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34073,13 +34073,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R40" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
         <v>3.80849026956197</v>
@@ -34125,10 +34125,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -34143,16 +34143,16 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O41" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596219</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R41" t="n">
         <v>124.822749411891</v>
@@ -34161,10 +34161,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34231,10 +34231,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S42" t="n">
         <v>19.74842099131456</v>
@@ -34243,7 +34243,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I43" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K43" t="n">
         <v>103.5585226489404</v>
@@ -34310,13 +34310,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R43" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
         <v>3.80849026956197</v>
@@ -34362,10 +34362,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J44" t="n">
         <v>168.6534109867667</v>
@@ -34380,13 +34380,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O44" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q44" t="n">
         <v>214.5854405596218</v>
@@ -34398,10 +34398,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34468,10 +34468,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S45" t="n">
         <v>19.74842099131456</v>
@@ -34480,7 +34480,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I46" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K46" t="n">
         <v>103.5585226489404</v>
@@ -34547,13 +34547,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R46" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
         <v>3.80849026956197</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J11" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L11" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M11" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N11" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O11" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>20.43330505208249</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163666</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M12" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N12" t="n">
-        <v>520.269959231448</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P12" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136922</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622839</v>
+        <v>223.8338504842537</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>110.6004951434827</v>
       </c>
       <c r="M13" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N13" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702223</v>
       </c>
       <c r="O13" t="n">
-        <v>377.0954586590885</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L14" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M15" t="n">
-        <v>511.3862575357974</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P15" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K16" t="n">
-        <v>213.2161668207627</v>
+        <v>82.59386819622834</v>
       </c>
       <c r="L16" t="n">
-        <v>490.7912967507202</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M16" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N16" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J17" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>247.8473165317577</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>148.85927498986</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
-        <v>119.9052140416981</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N19" t="n">
-        <v>115.6517728702224</v>
+        <v>398.5471156643104</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>321.2365787886771</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
@@ -36223,7 +36223,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>170.2043240948297</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1475339767207</v>
+        <v>435.8205721965534</v>
       </c>
       <c r="N22" t="n">
-        <v>517.7052302862629</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O22" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q22" t="n">
         <v>50.01874334784338</v>
@@ -36357,7 +36357,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>534.9195310038328</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K23" t="n">
         <v>217.0031433876725</v>
@@ -36372,13 +36372,13 @@
         <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>503.8396402605449</v>
       </c>
       <c r="P23" t="n">
-        <v>555.7294776297842</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550237</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R23" t="n">
         <v>243.5665220198734</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9308271163657</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115149</v>
+        <v>343.2120984828485</v>
       </c>
       <c r="M24" t="n">
         <v>246.2931322782842</v>
@@ -36460,7 +36460,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>534.9195310038328</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K26" t="n">
         <v>217.0031433876725</v>
@@ -36609,13 +36609,13 @@
         <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>297.4145888894179</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171332</v>
+        <v>497.9465075023305</v>
       </c>
       <c r="Q26" t="n">
-        <v>486.0168159676748</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486729</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
         <v>208.3339289115149</v>
@@ -36697,7 +36697,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,13 +36761,13 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N28" t="n">
         <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
-        <v>372.1140567181432</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
         <v>401.3391416378323</v>
@@ -36831,7 +36831,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
@@ -36840,10 +36840,10 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>750.8836385195242</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>581.1314622592221</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
         <v>297.4145888894179</v>
@@ -36852,7 +36852,7 @@
         <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R29" t="n">
         <v>243.5665220198734</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>332.3742814427153</v>
+        <v>219.4819269776937</v>
       </c>
       <c r="L31" t="n">
-        <v>456.607746980871</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
         <v>534.8601405048234</v>
@@ -37086,10 +37086,10 @@
         <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>555.7294776297842</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R32" t="n">
         <v>243.5665220198734</v>
@@ -37147,7 +37147,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>321.2365787886773</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37171,7 +37171,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,10 +37235,10 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N34" t="n">
-        <v>404.8128758212413</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3816032211693</v>
+        <v>97.48348624801075</v>
       </c>
       <c r="K37" t="n">
         <v>82.59386819622839</v>
@@ -37472,7 +37472,7 @@
         <v>110.6004951434828</v>
       </c>
       <c r="M37" t="n">
-        <v>426.5317761745545</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
         <v>517.7052302862629</v>
@@ -37481,10 +37481,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.01874334784338</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
@@ -37548,25 +37548,25 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M38" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O38" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171341</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37633,19 +37633,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>496.5757109037592</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>165.7023781703239</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M40" t="n">
         <v>534.442728698631</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297616</v>
+        <v>215.4166036731262</v>
       </c>
       <c r="Q40" t="n">
         <v>202.9212659517818</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
@@ -37785,22 +37785,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M41" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O41" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550239</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R41" t="n">
         <v>89.79009951709452</v>
@@ -37858,7 +37858,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37870,19 +37870,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N42" t="n">
-        <v>496.5757109037592</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M43" t="n">
-        <v>448.3944319833573</v>
+        <v>362.2563327221732</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O43" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J44" t="n">
         <v>139.2334515011802</v>
@@ -38022,22 +38022,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M44" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O44" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R44" t="n">
         <v>89.79009951709452</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>344.9308271163657</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38110,16 +38110,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K46" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L46" t="n">
-        <v>304.8687587860135</v>
+        <v>318.6049007742623</v>
       </c>
       <c r="M46" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6517728702224</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O46" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P46" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
